--- a/OrderData/completed.xlsx
+++ b/OrderData/completed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{52C301B5-F66D-4C76-84D4-CF139CFD6B34}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2C1518D-FBD4-4E15-AB3B-09632FEDEDC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SN</t>
   </si>
@@ -115,19 +115,13 @@
     <t>Completed Date</t>
   </si>
   <si>
-    <t>Exit Price</t>
-  </si>
-  <si>
-    <t>Exit Price1</t>
-  </si>
-  <si>
-    <t>Exit Price2</t>
-  </si>
-  <si>
-    <t>Exit Price3</t>
-  </si>
-  <si>
-    <t>Exit Price4</t>
+    <t>CurrentSop</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -446,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,14 +469,14 @@
     <col min="27" max="27" width="10.77734375" customWidth="1"/>
     <col min="28" max="28" width="11.109375" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" customWidth="1"/>
-    <col min="33" max="33" width="10.5546875" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" customWidth="1"/>
     <col min="34" max="34" width="10.44140625" customWidth="1"/>
     <col min="35" max="35" width="11.109375" customWidth="1"/>
     <col min="36" max="36" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,29 +561,23 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/OrderData/completed.xlsx
+++ b/OrderData/completed.xlsx
@@ -1,145 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2C1518D-FBD4-4E15-AB3B-09632FEDEDC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>instru1</t>
-  </si>
-  <si>
-    <t>instru2</t>
-  </si>
-  <si>
-    <t>instru3</t>
-  </si>
-  <si>
-    <t>instru4</t>
-  </si>
-  <si>
-    <t>BUY/SELL1</t>
-  </si>
-  <si>
-    <t>BUY/SELL2</t>
-  </si>
-  <si>
-    <t>BUY/SELL3</t>
-  </si>
-  <si>
-    <t>BUY/SELL4</t>
-  </si>
-  <si>
-    <t>PE/CE1</t>
-  </si>
-  <si>
-    <t>PE/CE2</t>
-  </si>
-  <si>
-    <t>PE/CE3</t>
-  </si>
-  <si>
-    <t>PE/CE4</t>
-  </si>
-  <si>
-    <t>Sldelta</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>strike_price1</t>
-  </si>
-  <si>
-    <t>strike_price2</t>
-  </si>
-  <si>
-    <t>strike_price3</t>
-  </si>
-  <si>
-    <t>strike_price4</t>
-  </si>
-  <si>
-    <t>expiry1</t>
-  </si>
-  <si>
-    <t>expiry2</t>
-  </si>
-  <si>
-    <t>expiry3</t>
-  </si>
-  <si>
-    <t>expiry4</t>
-  </si>
-  <si>
-    <t>Quantity1</t>
-  </si>
-  <si>
-    <t>Quantity2</t>
-  </si>
-  <si>
-    <t>Quantity3</t>
-  </si>
-  <si>
-    <t>Quantity4</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>isop</t>
-  </si>
-  <si>
-    <t>Completed Date</t>
-  </si>
-  <si>
-    <t>CurrentSop</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -158,22 +46,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -439,145 +318,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="19" width="12.77734375" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="11.21875" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" customWidth="1"/>
-    <col min="28" max="28" width="11.109375" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" customWidth="1"/>
-    <col min="33" max="33" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="10.44140625" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+    <col width="22.5546875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.109375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.77734375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="10.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="10.44140625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.21875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.77734375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12.5546875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="11.6640625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.21875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="11.6640625" customWidth="1" style="1" min="12" max="12"/>
+    <col width="10.33203125" customWidth="1" style="1" min="13" max="13"/>
+    <col width="11.109375" customWidth="1" style="1" min="14" max="14"/>
+    <col width="11.77734375" customWidth="1" style="1" min="17" max="17"/>
+    <col width="12.77734375" customWidth="1" style="1" min="18" max="19"/>
+    <col width="11.6640625" customWidth="1" style="1" min="20" max="20"/>
+    <col width="11.21875" customWidth="1" style="1" min="25" max="25"/>
+    <col width="11.88671875" customWidth="1" style="1" min="26" max="26"/>
+    <col width="10.77734375" customWidth="1" style="1" min="27" max="27"/>
+    <col width="11.109375" customWidth="1" style="1" min="28" max="28"/>
+    <col width="15.6640625" customWidth="1" style="1" min="31" max="31"/>
+    <col width="12.5546875" customWidth="1" style="1" min="32" max="32"/>
+    <col width="25.109375" customWidth="1" style="1" min="33" max="33"/>
+    <col width="10.44140625" customWidth="1" style="1" min="34" max="34"/>
+    <col width="11.109375" customWidth="1" style="1" min="35" max="35"/>
+    <col width="11.6640625" customWidth="1" style="1" min="36" max="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instru1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>instru2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instru3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>instru4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BUY/SELL1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUY/SELL2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUY/SELL3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>BUY/SELL4</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>PE/CE1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PE/CE2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>PE/CE3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>PE/CE4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Sldelta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>strike_price1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>strike_price2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>strike_price3</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>strike_price4</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>expiry1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>expiry2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>expiry3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>expiry4</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Quantity1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Quantity2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Quantity3</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Quantity4</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>isop</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Completed Date</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>CurrentSop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-10-26 13:28:30.296367</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18200</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18300</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>28-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>28-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>31</v>
+      <c r="AF2" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>2021-10-26 13:43:36.504280</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
+        <v>51.34999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/OrderData/completed.xlsx
+++ b/OrderData/completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarendra singh\AppData\Local\Programs\python_project\algoapp\OrderData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D4F7FFA-57AD-45CB-9E89-E2DC66F50185}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B989AFE-B4DC-42D7-AEAB-8DB316DC3BA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>SN</t>
   </si>
@@ -122,6 +122,36 @@
   </si>
   <si>
     <t>CurrentSop</t>
+  </si>
+  <si>
+    <t>2021-11-01 13:18:44.821481</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>03-11-2021 Nov</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>KiteFree</t>
+  </si>
+  <si>
+    <t>2021-11-01 13:31:17.915237</t>
   </si>
 </sst>
 </file>
@@ -440,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -464,7 +494,7 @@
     <col min="17" max="17" width="11.77734375" style="1" customWidth="1"/>
     <col min="18" max="19" width="12.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="11.21875" style="1" customWidth="1"/>
     <col min="26" max="26" width="11.88671875" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.77734375" style="1" customWidth="1"/>
@@ -581,6 +611,110 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>18000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>18100</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>24.9</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2">
+        <v>28.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OrderData/completed.xlsx
+++ b/OrderData/completed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarendra singh\AppData\Local\Programs\python_project\algoapp\OrderData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8B989AFE-B4DC-42D7-AEAB-8DB316DC3BA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC835F-51E4-4744-9094-565D2D5B095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SN</t>
   </si>
@@ -122,36 +122,6 @@
   </si>
   <si>
     <t>CurrentSop</t>
-  </si>
-  <si>
-    <t>2021-11-01 13:18:44.821481</t>
-  </si>
-  <si>
-    <t>NIFTY</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>SELL</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>03-11-2021 Nov</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t>KiteFree</t>
-  </si>
-  <si>
-    <t>2021-11-01 13:31:17.915237</t>
   </si>
 </sst>
 </file>
@@ -470,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,110 +581,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>18000</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>18100</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>24.9</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2">
-        <v>28.85</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
